--- a/data-raw/goalkeepers_season_2017.xlsx
+++ b/data-raw/goalkeepers_season_2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiatannir/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiatannir/Documents/nwslR/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>Seattle</t>
   </si>
   <si>
-    <t>Stephanie LabbÃ©</t>
-  </si>
-  <si>
     <t>Alyssa Naeher</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>au AUS</t>
+  </si>
+  <si>
+    <t>Stephanie Labbé</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1140,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -1193,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -1246,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -1255,7 +1257,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2">
         <v>5</v>
@@ -1299,7 +1301,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -1352,10 +1354,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>21</v>
@@ -1405,7 +1407,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
@@ -1458,7 +1460,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -1467,7 +1469,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2">
         <v>19</v>
@@ -1511,7 +1513,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1562,10 +1564,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>21</v>
@@ -1615,10 +1617,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
